--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220426_110637.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220426_110637.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="270">
   <si>
     <t>사이트</t>
   </si>
@@ -1362,6 +1362,12 @@
       <c r="F7" t="s">
         <v>179</v>
       </c>
+      <c r="G7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H7" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
@@ -2265,6 +2271,12 @@
       </c>
       <c r="F42" t="s">
         <v>195</v>
+      </c>
+      <c r="G42" t="s">
+        <v>235</v>
+      </c>
+      <c r="H42" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:8">

--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220426_110637.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220426_110637.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>vibe</t>
+    <t>Vibe</t>
   </si>
   <si>
     <t>2022-04-26</t>

--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220426_110637.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220426_110637.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="270">
   <si>
     <t>사이트</t>
   </si>
@@ -1181,7 +1181,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3379,22 +3379,22 @@
         <v>9</v>
       </c>
       <c r="C85">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D85" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="F85" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G85" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="H85" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3405,22 +3405,22 @@
         <v>9</v>
       </c>
       <c r="C86">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D86" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E86" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="F86" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G86" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="H86" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3431,22 +3431,22 @@
         <v>9</v>
       </c>
       <c r="C87">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D87" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E87" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F87" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G87" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H87" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3457,19 +3457,19 @@
         <v>9</v>
       </c>
       <c r="C88">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D88" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E88" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="F88" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G88" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="H88" t="s">
         <v>257</v>
@@ -3483,19 +3483,19 @@
         <v>9</v>
       </c>
       <c r="C89">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D89" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E89" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="F89" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G89" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="H89" t="s">
         <v>257</v>
@@ -3509,22 +3509,22 @@
         <v>9</v>
       </c>
       <c r="C90">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D90" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E90" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F90" t="s">
-        <v>221</v>
+        <v>98</v>
       </c>
       <c r="G90" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H90" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3535,22 +3535,22 @@
         <v>9</v>
       </c>
       <c r="C91">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D91" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E91" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F91" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G91" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H91" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3561,19 +3561,19 @@
         <v>9</v>
       </c>
       <c r="C92">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D92" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E92" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F92" t="s">
-        <v>99</v>
+        <v>222</v>
       </c>
       <c r="G92" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H92" t="s">
         <v>257</v>
@@ -3587,19 +3587,19 @@
         <v>9</v>
       </c>
       <c r="C93">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D93" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E93" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F93" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G93" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H93" t="s">
         <v>257</v>
@@ -3613,22 +3613,22 @@
         <v>9</v>
       </c>
       <c r="C94">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D94" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E94" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F94" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G94" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H94" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3639,22 +3639,22 @@
         <v>9</v>
       </c>
       <c r="C95">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D95" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E95" t="s">
-        <v>171</v>
+        <v>113</v>
       </c>
       <c r="F95" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G95" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="H95" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3665,22 +3665,22 @@
         <v>9</v>
       </c>
       <c r="C96">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D96" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E96" t="s">
-        <v>113</v>
+        <v>172</v>
       </c>
       <c r="F96" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G96" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="H96" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3691,22 +3691,22 @@
         <v>9</v>
       </c>
       <c r="C97">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D97" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E97" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F97" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G97" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="H97" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3717,22 +3717,22 @@
         <v>9</v>
       </c>
       <c r="C98">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D98" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E98" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="F98" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G98" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="H98" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3743,19 +3743,19 @@
         <v>9</v>
       </c>
       <c r="C99">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D99" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E99" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F99" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G99" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="H99" t="s">
         <v>257</v>
@@ -3769,19 +3769,19 @@
         <v>9</v>
       </c>
       <c r="C100">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D100" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E100" t="s">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="F100" t="s">
-        <v>229</v>
+        <v>108</v>
       </c>
       <c r="G100" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="H100" t="s">
         <v>257</v>
@@ -3795,47 +3795,21 @@
         <v>9</v>
       </c>
       <c r="C101">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D101" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E101" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F101" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G101" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H101" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" t="s">
-        <v>8</v>
-      </c>
-      <c r="B102" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102">
-        <v>100</v>
-      </c>
-      <c r="D102" t="s">
-        <v>109</v>
-      </c>
-      <c r="E102" t="s">
-        <v>175</v>
-      </c>
-      <c r="F102" t="s">
-        <v>109</v>
-      </c>
-      <c r="G102" t="s">
-        <v>269</v>
-      </c>
-      <c r="H102" t="s">
         <v>257</v>
       </c>
     </row>

--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220426_110637.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220426_110637.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="269">
   <si>
     <t>사이트</t>
   </si>
@@ -763,7 +763,7 @@
     <t>P NATION</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>빅히트</t>
@@ -785,9 +785,6 @@
   </si>
   <si>
     <t>JYP</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
   <si>
     <t>NEXTAR</t>
@@ -1288,7 +1285,7 @@
         <v>232</v>
       </c>
       <c r="H4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1340,7 +1337,7 @@
         <v>234</v>
       </c>
       <c r="H6" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1366,7 +1363,7 @@
         <v>235</v>
       </c>
       <c r="H7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1418,7 +1415,7 @@
         <v>235</v>
       </c>
       <c r="H9" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1444,7 +1441,7 @@
         <v>236</v>
       </c>
       <c r="H10" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1496,7 +1493,7 @@
         <v>237</v>
       </c>
       <c r="H12" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1522,7 +1519,7 @@
         <v>238</v>
       </c>
       <c r="H13" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1548,7 +1545,7 @@
         <v>239</v>
       </c>
       <c r="H14" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1574,7 +1571,7 @@
         <v>240</v>
       </c>
       <c r="H15" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1600,7 +1597,7 @@
         <v>241</v>
       </c>
       <c r="H16" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1626,7 +1623,7 @@
         <v>242</v>
       </c>
       <c r="H17" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1652,7 +1649,7 @@
         <v>243</v>
       </c>
       <c r="H18" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1678,7 +1675,7 @@
         <v>243</v>
       </c>
       <c r="H19" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1704,7 +1701,7 @@
         <v>244</v>
       </c>
       <c r="H20" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1756,7 +1753,7 @@
         <v>245</v>
       </c>
       <c r="H22" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1808,7 +1805,7 @@
         <v>247</v>
       </c>
       <c r="H24" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1860,7 +1857,7 @@
         <v>248</v>
       </c>
       <c r="H26" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1886,7 +1883,7 @@
         <v>243</v>
       </c>
       <c r="H27" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1938,7 +1935,7 @@
         <v>232</v>
       </c>
       <c r="H29" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1964,7 +1961,7 @@
         <v>239</v>
       </c>
       <c r="H30" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1990,7 +1987,7 @@
         <v>249</v>
       </c>
       <c r="H31" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2016,7 +2013,7 @@
         <v>249</v>
       </c>
       <c r="H32" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2042,7 +2039,7 @@
         <v>236</v>
       </c>
       <c r="H33" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2068,7 +2065,7 @@
         <v>239</v>
       </c>
       <c r="H34" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2146,7 +2143,7 @@
         <v>251</v>
       </c>
       <c r="H37" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2198,7 +2195,7 @@
         <v>252</v>
       </c>
       <c r="H39" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2250,7 +2247,7 @@
         <v>253</v>
       </c>
       <c r="H41" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2276,7 +2273,7 @@
         <v>235</v>
       </c>
       <c r="H42" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2302,7 +2299,7 @@
         <v>254</v>
       </c>
       <c r="H43" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2406,7 +2403,7 @@
         <v>243</v>
       </c>
       <c r="H47" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2432,7 +2429,7 @@
         <v>244</v>
       </c>
       <c r="H48" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2458,7 +2455,7 @@
         <v>249</v>
       </c>
       <c r="H49" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2484,7 +2481,7 @@
         <v>243</v>
       </c>
       <c r="H50" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2510,7 +2507,7 @@
         <v>255</v>
       </c>
       <c r="H51" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2536,7 +2533,7 @@
         <v>243</v>
       </c>
       <c r="H52" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2614,7 +2611,7 @@
         <v>239</v>
       </c>
       <c r="H55" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2640,7 +2637,7 @@
         <v>249</v>
       </c>
       <c r="H56" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2689,10 +2686,10 @@
         <v>149</v>
       </c>
       <c r="G58" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="H58" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2744,7 +2741,7 @@
         <v>241</v>
       </c>
       <c r="H60" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2770,7 +2767,7 @@
         <v>249</v>
       </c>
       <c r="H61" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2793,10 +2790,10 @@
         <v>206</v>
       </c>
       <c r="G62" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H62" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2822,7 +2819,7 @@
         <v>239</v>
       </c>
       <c r="H63" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2848,7 +2845,7 @@
         <v>243</v>
       </c>
       <c r="H64" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2874,7 +2871,7 @@
         <v>242</v>
       </c>
       <c r="H65" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2900,7 +2897,7 @@
         <v>242</v>
       </c>
       <c r="H66" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2926,7 +2923,7 @@
         <v>239</v>
       </c>
       <c r="H67" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2978,7 +2975,7 @@
         <v>249</v>
       </c>
       <c r="H69" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3030,7 +3027,7 @@
         <v>249</v>
       </c>
       <c r="H71" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3082,7 +3079,7 @@
         <v>239</v>
       </c>
       <c r="H73" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3131,10 +3128,10 @@
         <v>83</v>
       </c>
       <c r="G75" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H75" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3157,10 +3154,10 @@
         <v>211</v>
       </c>
       <c r="G76" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H76" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3186,7 +3183,7 @@
         <v>243</v>
       </c>
       <c r="H77" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3212,7 +3209,7 @@
         <v>243</v>
       </c>
       <c r="H78" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3235,10 +3232,10 @@
         <v>213</v>
       </c>
       <c r="G79" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H79" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3264,7 +3261,7 @@
         <v>239</v>
       </c>
       <c r="H80" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3290,7 +3287,7 @@
         <v>244</v>
       </c>
       <c r="H81" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3313,10 +3310,10 @@
         <v>90</v>
       </c>
       <c r="G82" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H82" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3339,10 +3336,10 @@
         <v>91</v>
       </c>
       <c r="G83" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H83" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3368,7 +3365,7 @@
         <v>236</v>
       </c>
       <c r="H84" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3394,7 +3391,7 @@
         <v>251</v>
       </c>
       <c r="H85" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3446,7 +3443,7 @@
         <v>248</v>
       </c>
       <c r="H87" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3472,7 +3469,7 @@
         <v>255</v>
       </c>
       <c r="H88" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3495,10 +3492,10 @@
         <v>221</v>
       </c>
       <c r="G89" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H89" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3521,10 +3518,10 @@
         <v>98</v>
       </c>
       <c r="G90" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H90" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3547,10 +3544,10 @@
         <v>99</v>
       </c>
       <c r="G91" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H91" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3573,10 +3570,10 @@
         <v>222</v>
       </c>
       <c r="G92" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H92" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3599,10 +3596,10 @@
         <v>223</v>
       </c>
       <c r="G93" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H93" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3625,10 +3622,10 @@
         <v>224</v>
       </c>
       <c r="G94" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H94" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3677,10 +3674,10 @@
         <v>226</v>
       </c>
       <c r="G96" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="H96" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3732,7 +3729,7 @@
         <v>245</v>
       </c>
       <c r="H98" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3758,7 +3755,7 @@
         <v>237</v>
       </c>
       <c r="H99" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3781,10 +3778,10 @@
         <v>108</v>
       </c>
       <c r="G100" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H100" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3807,10 +3804,10 @@
         <v>109</v>
       </c>
       <c r="G101" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H101" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
